--- a/examples/sample.xlsx
+++ b/examples/sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -50,12 +50,6 @@
   </si>
   <si>
     <t xml:space="preserve">customsTerritories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expectedEU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">Aldina shirt - Long sleeved blouses</t>
@@ -75,9 +69,6 @@
   </si>
   <si>
     <t xml:space="preserve">eu,no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6206300090</t>
   </si>
 </sst>
 </file>
@@ -292,10 +283,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -304,7 +295,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="48.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="17.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -338,28 +328,22 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/examples/sample.xlsx
+++ b/examples/sample.xlsx
@@ -22,34 +22,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subcategory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">countryOfOrigin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grossMass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">netMass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weightUnit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">customsTerritories</t>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subcategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country of origin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gross mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customs territories</t>
   </si>
   <si>
     <t xml:space="preserve">Aldina shirt - Long sleeved blouses</t>
@@ -286,7 +286,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
